--- a/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
@@ -859,7 +859,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1057,131 +1057,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1189,15 +1095,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,9 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1225,11 +1119,116 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,14 +1238,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,16 +1275,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>234222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="2800351"/>
+          <a:ext cx="1400175" cy="2739296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1307,46 +1350,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9477375" y="885825"/>
+          <a:off x="12258675" y="5905500"/>
           <a:ext cx="10058400" cy="5657850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>234222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838450" y="2800351"/>
-          <a:ext cx="1400175" cy="2739296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1358,7 +1363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1401,7 +1406,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1444,7 +1449,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1487,7 +1492,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1793,10 +1798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,184 +1831,184 @@
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
     </row>
     <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43388</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="20">
         <v>43433</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
     </row>
     <row r="5" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="47">
+      <c r="O5" s="62"/>
+      <c r="P5" s="54">
         <v>43503</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
     </row>
     <row r="6" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O6" s="44"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2009,26 +2017,26 @@
       <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="W9" s="53" t="s">
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="W9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2040,29 +2048,29 @@
       <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="28">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="14">
         <v>1</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2078,32 +2086,32 @@
         <f>B21/B20</f>
         <v>681818.18181818177</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="15">
         <v>1</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="49" t="s">
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="15">
         <f>P21/P20</f>
         <v>1150000</v>
       </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2118,31 +2126,31 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="15">
         <v>2</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="28">
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="14">
         <v>2</v>
       </c>
-      <c r="W12" s="34" t="s">
+      <c r="W12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2158,32 +2166,32 @@
         <f>J11*B22</f>
         <v>886363.63636363635</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="15">
         <v>3</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="P13" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="49" t="s">
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="15">
         <f>X11*P22</f>
         <v>1380000</v>
       </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H14">
@@ -2192,51 +2200,51 @@
       <c r="I14" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="28">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="14">
         <v>3</v>
       </c>
-      <c r="W14" s="34" t="s">
+      <c r="W14" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="53" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
     </row>
     <row r="16" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2254,33 +2262,33 @@
       <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="37" t="s">
+      <c r="P16" s="49"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="X16" s="37" t="s">
+      <c r="X16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="Y16" s="37" t="s">
+      <c r="Y16" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="Z16" s="37" t="s">
+      <c r="Z16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2301,36 +2309,36 @@
       <c r="L17">
         <v>12.7</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="15">
         <v>30</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="38">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="17">
         <v>148.12594604766301</v>
       </c>
-      <c r="X17" s="38">
+      <c r="X17" s="17">
         <v>119.482014134514</v>
       </c>
-      <c r="Y17" s="38">
+      <c r="Y17" s="17">
         <v>20.499638015148467</v>
       </c>
-      <c r="Z17" s="38">
+      <c r="Z17" s="17">
         <f>P19</f>
         <v>10.16</v>
       </c>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2343,28 +2351,28 @@
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="17">
         <f>(PI()/180)*P17</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
     </row>
     <row r="19" spans="1:31" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2391,39 +2399,39 @@
       <c r="M19" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="15">
         <v>10.16</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="37" t="s">
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="X19" s="37" t="s">
+      <c r="X19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="Y19" s="37" t="s">
+      <c r="Y19" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="Z19" s="37" t="s">
+      <c r="Z19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="AA19" s="51" t="s">
+      <c r="AA19" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
     </row>
     <row r="20" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2452,42 +2460,42 @@
         <f>I20+L20</f>
         <v>886363.63636364811</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P20" s="15">
         <v>0.44</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="38">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="17">
         <f>(W17*W17)*Y17</f>
         <v>449788.62337982492</v>
       </c>
-      <c r="X20" s="38">
+      <c r="X20" s="17">
         <f>(W17*W17)</f>
         <v>21941.295892515172</v>
       </c>
-      <c r="Y20" s="38">
+      <c r="Y20" s="17">
         <f>PI()*(Z17/2)^2</f>
         <v>81.073196655599631</v>
       </c>
-      <c r="Z20" s="38">
+      <c r="Z20" s="17">
         <f>(X17/3)*(X20+Y20+SQRT(X20*Y20))</f>
         <v>930211.48203324247</v>
       </c>
-      <c r="AA20" s="52">
+      <c r="AA20" s="24">
         <f>W20+Z20</f>
         <v>1380000.1054130674</v>
       </c>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2500,31 +2508,31 @@
       <c r="I21" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="15">
         <v>506000</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="Q21" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="39" t="s">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2540,32 +2548,32 @@
         <f>J13-M20</f>
         <v>-1.1757947504520416E-8</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="O22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="17">
         <v>1.2</v>
       </c>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="29" t="s">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="X22" s="38">
+      <c r="X22" s="17">
         <f>X13-AA20</f>
         <v>-0.10541306738741696</v>
       </c>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
     </row>
     <row r="23" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2574,27 +2582,27 @@
       <c r="B23">
         <v>6000</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="15">
         <v>6000</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
     </row>
     <row r="24" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2606,29 +2614,29 @@
       <c r="I24" t="s">
         <v>66</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="15">
         <v>50</v>
       </c>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="39" t="s">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
@@ -2638,71 +2646,71 @@
         <f>2*J17*TAN(B18)+L17-I17</f>
         <v>0</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="29" t="s">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="X25" s="40">
+      <c r="X25" s="18">
         <f>2*X17*TAN(P18)+Z17-W17</f>
         <v>9.7628571893437766E-11</v>
       </c>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="39" t="s">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
@@ -2712,47 +2720,47 @@
         <f>4*I17*K17+4/2*(I17+L17)*J17/COS(B18)</f>
         <v>41472.285219549667</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="29" t="s">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="X28" s="38">
+      <c r="X28" s="17">
         <f>4*W17*Y17+4/2*(W17+Z17)*X17/COS(P18)</f>
         <v>55822.253683575269</v>
       </c>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2936,6 +2944,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="W15:Z15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="O1:Z1"/>
@@ -2945,11 +2958,6 @@
     <mergeCell ref="P3:Z3"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="W15:Z15"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="P11:U11"/>
     <mergeCell ref="P12:U12"/>
@@ -2957,7 +2965,7 @@
     <mergeCell ref="O9:U9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2967,7 +2975,7 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,6 +3667,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3670,7 +3679,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:W6"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,147 +3694,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="8" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="55" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="58"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="30">
         <v>43391</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="58"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="75"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L5" s="60"/>
-      <c r="M5" s="59" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L6" s="60"/>
-      <c r="M6" s="59" t="s">
+      <c r="L6" s="28"/>
+      <c r="M6" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
@@ -3853,7 +3862,7 @@
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64"/>
-      <c r="O9" s="54"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3878,11 +3887,11 @@
       <c r="H10">
         <v>8.1825961591545759</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="O10" t="s">
         <v>81</v>
       </c>
@@ -3900,11 +3909,11 @@
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
       <c r="O11" t="s">
         <v>81</v>
       </c>
@@ -3931,11 +3940,11 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
       <c r="O12" t="s">
         <v>81</v>
       </c>
@@ -3967,11 +3976,11 @@
         <f>G10*G10*H10</f>
         <v>208.75809447420013</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
       <c r="O13" t="s">
         <v>81</v>
       </c>
@@ -3997,11 +4006,11 @@
         <f>#REF!-J13-G13</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
       <c r="O14" t="s">
         <v>81</v>
       </c>
@@ -4013,11 +4022,11 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
       <c r="R15" t="s">
         <v>81</v>
       </c>
@@ -4032,11 +4041,11 @@
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
       <c r="O16" t="s">
         <v>81</v>
       </c>
@@ -4062,11 +4071,11 @@
         <f>1.62*G10-H10</f>
         <v>3.8031799931559362E-12</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L18" s="5"/>
@@ -4074,27 +4083,27 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="20" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4104,64 +4113,64 @@
         <f>2*D10-B10</f>
         <v>0</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
       <c r="O21" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="6">
         <v>1</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
     </row>
     <row r="22" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
       <c r="O22" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="6">
         <v>2</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="66" t="s">
         <v>191</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="66"/>
       <c r="O23" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="6">
         <v>3</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="6">
         <f>6000/2000</f>
         <v>3</v>
       </c>
@@ -4179,21 +4188,21 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="6">
         <v>30</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4209,69 +4218,69 @@
         <f>A26*C26</f>
         <v>36.608000000000004</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="L26" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="M26" s="73">
+      <c r="M26" s="37">
         <f>30*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="S26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="U26" s="12" t="s">
+      <c r="U26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="W26" s="12" t="s">
+      <c r="W26" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="74" t="s">
+      <c r="M27" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="6">
         <v>58.792234391009401</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="6">
         <v>10</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="6">
         <v>7.8768082220043922</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="6">
         <v>5</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="6">
         <f>(Q27-R27)/(2*TAN(M26))</f>
         <v>42.25531449001889</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="6">
         <f>R27*R27</f>
         <v>100</v>
       </c>
-      <c r="W27" s="12">
+      <c r="W27" s="6">
         <f>Q27*Q27</f>
         <v>3456.5268246873884</v>
       </c>
@@ -4280,26 +4289,26 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="8">
         <v>11250.005999999999</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="8">
         <v>0.44022</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="8">
         <f>M28/N28</f>
         <v>25555.417745672617</v>
       </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4308,17 +4317,17 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="8">
         <f>M28/M24</f>
         <v>3750.002</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="8">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="8">
         <f>M29/N29</f>
         <v>12711.871186440678</v>
       </c>
@@ -4328,9 +4337,9 @@
       <c r="R29" s="64"/>
       <c r="S29" s="64"/>
       <c r="T29" s="64"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4339,93 +4348,93 @@
       <c r="B30">
         <v>4.5800291779406122</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="8">
         <f>SUM(M28:M29)</f>
         <v>15000.008</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="8">
         <f>(N28*M24+N29)/4</f>
         <v>0.40391499999999997</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="8">
         <f>SUM(O28:O29)</f>
         <v>38267.288932113297</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="6">
         <f>4*(R27*T27)+(4/2)*(Q27+R27)*(U27/COS(M26))+4*Q27*S27</f>
         <v>8765.4342703392249</v>
       </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="8">
         <f>1.5*M30</f>
         <v>22500.011999999999</v>
       </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="19">
+      <c r="N31" s="6"/>
+      <c r="O31" s="8">
         <f>1.5*O30</f>
         <v>57400.933398169946</v>
       </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="6">
         <v>1.5</v>
       </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
       <c r="Q32" s="64" t="s">
         <v>87</v>
       </c>
       <c r="R32" s="64"/>
       <c r="S32" s="64"/>
       <c r="T32" s="64"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A30*A30*B30</f>
         <v>36.607890624964938</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="6">
         <f>O31*M32-(W27*S27+(V27*T27)+(U27/3*(W27+V27+SQRT(W27*V27))))</f>
         <v>1.8265059043187648E-4</v>
       </c>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34">
@@ -4444,6 +4453,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q29:T29"/>
     <mergeCell ref="Q25:T25"/>
@@ -4455,17 +4475,6 @@
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4917,459 +4926,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="39">
         <v>43433</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="75">
+      <c r="A4" s="31"/>
+      <c r="B4" s="39">
         <v>43563</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="H9" s="21" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="H9" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="22"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
+      <c r="A11" s="27">
         <v>1</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="H11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="8">
         <f>B20/B19</f>
         <v>16064.257028112448</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
+      <c r="A12" s="27">
         <v>2</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="8">
         <f>I11*B21</f>
         <v>19277.108433734938</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="H15" s="20" t="s">
+      <c r="B15" s="81"/>
+      <c r="H15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="77" t="s">
+      <c r="I16" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="40" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="43">
         <f>(PI()/180)*B16</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="41">
         <v>43.975296439663964</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="41">
         <v>35.884019330087902</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="41">
         <v>0</v>
       </c>
-      <c r="K17" s="78">
+      <c r="K17" s="41">
         <v>2.54</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>2.54</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="6">
         <v>1.2450000000000001</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="6">
         <v>20000</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="8">
         <f>I20*J17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="8">
         <f>(PI()*(H17^2)/4)</f>
         <v>1518.8239361184492</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="8">
         <f>PI()*(K17/2)^2</f>
         <v>5.0670747909749769</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="8">
         <f>(I17/3)*(I20+J20+SQRT(I20*J20))</f>
         <v>19277.108433737867</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="8">
         <f>H20+K20</f>
         <v>19277.108433737867</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <v>1.2</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="6">
         <v>100</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="8">
         <f>I13-L20</f>
         <v>-2.9285729397088289E-9</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <v>50</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="6">
         <f>2*I17*TAN(B17)+K17-H17</f>
         <v>0</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="8">
         <f>I17/COS(B17)</f>
         <v>41.435296439663965</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="19"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="8">
         <f>PI()*(0.5*H17+0.5*K17)*I28</f>
         <v>3027.5137226549482</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="87">
+      <c r="I30" s="47">
         <f>H17*PI()*J17+I29</f>
         <v>3027.5137226549482</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -5383,17 +5392,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5424,494 +5433,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B3" s="39">
         <v>43433</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="75">
+      <c r="A4" s="31"/>
+      <c r="B4" s="39">
         <v>43563</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="23"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="18" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="86"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="85"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="I10" s="20" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="I10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="8">
         <f>B20/B19</f>
         <v>704.22535211267609</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="85"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="85"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="6">
         <f>J10*B21</f>
         <v>1408.4507042253522</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="85"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="85"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="85"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="89"/>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="77" t="s">
+      <c r="K15" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="85"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="6">
         <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>205</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="41">
         <v>18.385069549951073</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="41">
         <v>14.796104255681536</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="41">
         <v>0</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="41">
         <f>B18</f>
         <v>1.3</v>
       </c>
-      <c r="M16" s="23"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="8">
         <f>(PI()/180)*B16</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="23"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="6">
         <v>1.3</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="6">
         <v>0.71</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="8">
         <f>J19*K16</f>
         <v>0</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="8">
         <f>(PI()*(I16^2)/4)</f>
         <v>265.47304767135967</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="8">
         <f>PI()*(L16/2)^2</f>
         <v>1.3273228961416876</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="8">
         <f>(J16/3)*(J19+K19+SQRT(J19*K19))</f>
         <v>1408.4502902540867</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="8">
         <f>I19+L19</f>
         <v>1408.4502902540867</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="6">
         <f>B22*B23</f>
         <v>500</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="8">
         <f>J12-M19</f>
         <v>4.1397126551601104E-4</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="23"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="6">
         <v>10</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="23"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <v>50</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="8">
         <f>2*J16*TAN(B17)+L16-I16</f>
         <v>-6.7501559897209518E-14</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="23"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="23"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="8">
         <f>J16/COS(B17)</f>
         <v>17.085069549951005</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="23"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="8">
         <f>PI()*(0.5*I16+0.5*L16)*J27</f>
         <v>528.29144955043387</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="23"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J29" s="87">
+      <c r="J29" s="47">
         <f>I16*PI()*K16+J28</f>
         <v>528.29144955043387</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="23"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M30" s="23"/>
+      <c r="M30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I8:L8"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +895,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1048,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1131,6 +1139,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1171,12 +1180,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1195,12 +1204,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1212,6 +1215,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1803,8 +1812,8 @@
   </sheetPr>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,20 +1840,20 @@
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
       <c r="AC1" s="13"/>
@@ -1880,19 +1889,19 @@
       <c r="O3" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
@@ -1930,21 +1939,21 @@
     <row r="5" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="O5" s="62"/>
-      <c r="P5" s="54">
+      <c r="P5" s="55">
         <v>43503</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
@@ -1953,17 +1962,17 @@
     </row>
     <row r="6" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O6" s="62"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
@@ -2017,21 +2026,21 @@
       <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="O9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="W9" s="56" t="s">
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="W9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
@@ -2055,17 +2064,17 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="14">
         <v>1</v>
       </c>
-      <c r="W10" s="60" t="s">
+      <c r="W10" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
@@ -2103,7 +2112,7 @@
       </c>
       <c r="X11" s="15">
         <f>P21/P20</f>
-        <v>1150000</v>
+        <v>224136.36363636365</v>
       </c>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
@@ -2140,12 +2149,12 @@
       <c r="V12" s="14">
         <v>2</v>
       </c>
-      <c r="W12" s="60" t="s">
+      <c r="W12" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
@@ -2183,7 +2192,7 @@
       </c>
       <c r="X13" s="15">
         <f>X11*P22</f>
-        <v>1380000</v>
+        <v>268963.63636363635</v>
       </c>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
@@ -2210,12 +2219,12 @@
       <c r="V14" s="14">
         <v>3</v>
       </c>
-      <c r="W14" s="60" t="s">
+      <c r="W14" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
@@ -2234,12 +2243,12 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="56" t="s">
+      <c r="W15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
@@ -2262,10 +2271,10 @@
       <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="48" t="s">
+      <c r="O16" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="49"/>
+      <c r="P16" s="50"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
@@ -2322,17 +2331,16 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="17">
-        <v>148.12594604766301</v>
+        <v>79</v>
       </c>
       <c r="X17" s="17">
-        <v>119.482014134514</v>
+        <v>54.6</v>
       </c>
       <c r="Y17" s="17">
-        <v>20.499638015148467</v>
+        <v>21</v>
       </c>
       <c r="Z17" s="17">
-        <f>P19</f>
-        <v>10.16</v>
+        <v>16</v>
       </c>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
@@ -2474,23 +2482,23 @@
       <c r="V20" s="12"/>
       <c r="W20" s="17">
         <f>(W17*W17)*Y17</f>
-        <v>449788.62337982492</v>
+        <v>131061</v>
       </c>
       <c r="X20" s="17">
         <f>(W17*W17)</f>
-        <v>21941.295892515172</v>
+        <v>6241</v>
       </c>
       <c r="Y20" s="17">
         <f>PI()*(Z17/2)^2</f>
-        <v>81.073196655599631</v>
+        <v>201.06192982974676</v>
       </c>
       <c r="Z20" s="17">
         <f>(X17/3)*(X20+Y20+SQRT(X20*Y20))</f>
-        <v>930211.48203324247</v>
+        <v>137633.00029755701</v>
       </c>
       <c r="AA20" s="24">
         <f>W20+Z20</f>
-        <v>1380000.1054130674</v>
+        <v>268694.00029755698</v>
       </c>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
@@ -2512,7 +2520,7 @@
         <v>51</v>
       </c>
       <c r="P21" s="15">
-        <v>506000</v>
+        <v>98620</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>177</v>
@@ -2522,12 +2530,12 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="61" t="s">
+      <c r="W21" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
@@ -2565,7 +2573,7 @@
       </c>
       <c r="X22" s="17">
         <f>X13-AA20</f>
-        <v>-0.10541306738741696</v>
+        <v>269.63606607937254</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -2626,12 +2634,12 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="61" t="s">
+      <c r="W24" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
@@ -2659,7 +2667,7 @@
       </c>
       <c r="X25" s="18">
         <f>2*X17*TAN(P18)+Z17-W17</f>
-        <v>9.7628571893437766E-11</v>
+        <v>4.664939550713143E-2</v>
       </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
@@ -2700,12 +2708,12 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
-      <c r="W27" s="61" t="s">
+      <c r="W27" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
@@ -2733,7 +2741,7 @@
       </c>
       <c r="X28" s="17">
         <f>4*W17*Y17+4/2*(W17+Z17)*X17/COS(P18)</f>
-        <v>55822.253683575269</v>
+        <v>18614.863385146353</v>
       </c>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
@@ -2975,7 +2983,7 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,6 +3182,7 @@
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D14" s="48"/>
       <c r="I14" t="s">
         <v>60</v>
       </c>
@@ -3705,20 +3714,20 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -3735,19 +3744,19 @@
       <c r="L2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="75"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="74"/>
     </row>
     <row r="3" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3759,18 +3768,18 @@
       <c r="M3" s="30">
         <v>43391</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="75"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L4" s="9" t="s">
@@ -3857,11 +3866,11 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="25"/>
       <c r="P9" s="1" t="s">
         <v>24</v>
@@ -3887,11 +3896,11 @@
       <c r="H10">
         <v>8.1825961591545759</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="O10" t="s">
         <v>81</v>
       </c>
@@ -3909,11 +3918,11 @@
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
       <c r="O11" t="s">
         <v>81</v>
       </c>
@@ -3940,11 +3949,11 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
       <c r="O12" t="s">
         <v>81</v>
       </c>
@@ -3976,11 +3985,11 @@
         <f>G10*G10*H10</f>
         <v>208.75809447420013</v>
       </c>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
       <c r="O13" t="s">
         <v>81</v>
       </c>
@@ -4006,11 +4015,11 @@
         <f>#REF!-J13-G13</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
       <c r="O14" t="s">
         <v>81</v>
       </c>
@@ -4022,11 +4031,11 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
       <c r="R15" t="s">
         <v>81</v>
       </c>
@@ -4041,11 +4050,11 @@
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
       <c r="O16" t="s">
         <v>81</v>
       </c>
@@ -4071,11 +4080,11 @@
         <f>1.62*G10-H10</f>
         <v>3.8031799931559362E-12</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L18" s="5"/>
@@ -4083,11 +4092,11 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4113,55 +4122,55 @@
         <f>2*D10-B10</f>
         <v>0</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
       <c r="O21" t="s">
         <v>81</v>
       </c>
       <c r="Q21" s="6">
         <v>1</v>
       </c>
-      <c r="R21" s="65" t="s">
+      <c r="R21" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
     </row>
     <row r="22" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
       <c r="O22" t="s">
         <v>81</v>
       </c>
       <c r="Q22" s="6">
         <v>2</v>
       </c>
-      <c r="R22" s="65" t="s">
+      <c r="R22" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="M23" s="66"/>
+      <c r="M23" s="67"/>
       <c r="O23" t="s">
         <v>81</v>
       </c>
       <c r="Q23" s="6">
         <v>3</v>
       </c>
-      <c r="R23" s="65" t="s">
+      <c r="R23" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4194,12 +4203,12 @@
       <c r="M25" s="6">
         <v>30</v>
       </c>
-      <c r="Q25" s="65" t="s">
+      <c r="Q25" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -4331,12 +4340,12 @@
         <f>M29/N29</f>
         <v>12711.871186440678</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -4410,12 +4419,12 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="Q32" s="64" t="s">
+      <c r="Q32" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
@@ -4926,38 +4935,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4966,18 +4975,18 @@
       <c r="B3" s="39">
         <v>43433</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
@@ -5033,13 +5042,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -5051,30 +5060,30 @@
       <c r="A8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="H9" s="80" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="H9" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="81"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -5089,13 +5098,13 @@
       <c r="A11" s="27">
         <v>1</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="H11" s="9" t="s">
         <v>56</v>
       </c>
@@ -5110,13 +5119,13 @@
       <c r="A12" s="27">
         <v>2</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12">
         <v>2</v>
       </c>
@@ -5142,19 +5151,19 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="82"/>
       <c r="H15" s="9" t="s">
         <v>24</v>
       </c>
@@ -5278,12 +5287,12 @@
       <c r="B21" s="6">
         <v>1.2</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -5418,7 +5427,7 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -5433,38 +5442,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -5473,18 +5482,18 @@
       <c r="B3" s="39">
         <v>43433</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
@@ -5540,13 +5549,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -5564,23 +5573,23 @@
       <c r="F8" s="44"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
       <c r="H9">
         <v>1</v>
       </c>
@@ -5670,10 +5679,10 @@
       <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="90"/>
       <c r="I15" s="40" t="s">
         <v>200</v>
       </c>
@@ -5788,12 +5797,12 @@
         <f>B22*B23</f>
         <v>500</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="81"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5834,12 +5843,12 @@
       <c r="B23" s="6">
         <v>50</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="81"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5862,12 +5871,12 @@
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="80" t="s">
+      <c r="I26" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="81"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">

--- a/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="210">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -517,27 +517,9 @@
     <t>F.S.</t>
   </si>
   <si>
-    <t>Objetivo: Calcula espesor de pared para la tolva romana.</t>
-  </si>
-  <si>
-    <t>Calculo de esfuerzos en la tolva asumir concentrado como material, despreciar el resto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve Mena Navarro </t>
-  </si>
-  <si>
-    <t>Comentario: Se utilizó el método de Jannsen para cálculo de esfuero en Parte A y C, mientras que el código europeo para el esfuero en B</t>
-  </si>
-  <si>
-    <t>Método Jannsen</t>
-  </si>
-  <si>
     <t>http://www.dietmar-schulze.de/spanne.html</t>
   </si>
   <si>
-    <t>Norma Europea:</t>
-  </si>
-  <si>
     <t>http://fgg-web.fgg.uni-lj.si/~/pmoze/esdep/master/wg15c/l0200.htm</t>
   </si>
   <si>
@@ -562,33 +544,15 @@
     <t>densidad</t>
   </si>
   <si>
-    <t>Se utilizó el promedio mayor de los datos de DT y MP, concentrado Lechera NPP</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
     <t>Primero se diseñó por volumen y luego se verificó.</t>
   </si>
   <si>
-    <t>Perímetro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm </t>
-  </si>
-  <si>
-    <t>angulo fricción</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
     <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.1033.4612&amp;rep=rep1&amp;type=pdf</t>
   </si>
   <si>
-    <t>Asumido</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -601,18 +565,9 @@
     <t>Calcular esfuerzo</t>
   </si>
   <si>
-    <t>Mpa</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
-    <t>N/kg</t>
-  </si>
-  <si>
-    <t>Parte b</t>
-  </si>
-  <si>
     <t>Cálculo de esfuerzo horizontal</t>
   </si>
   <si>
@@ -625,69 +580,9 @@
     <t>alfa</t>
   </si>
   <si>
-    <t>pv0</t>
-  </si>
-  <si>
-    <t>Equivale a 30°</t>
-  </si>
-  <si>
-    <t>Calculo de presiones</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>Pperpendiular</t>
-  </si>
-  <si>
-    <t>Cortante</t>
-  </si>
-  <si>
-    <t>Cálculo de pandeo</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>Cálculo de b eq</t>
-  </si>
-  <si>
-    <t>b eq</t>
-  </si>
-  <si>
-    <t>Calculo de t</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Esfuerzo von Mises</t>
-  </si>
-  <si>
-    <t>Espesor</t>
-  </si>
-  <si>
-    <t>Esfuerzo de descarga</t>
-  </si>
-  <si>
     <t>Control de cambios</t>
   </si>
   <si>
@@ -851,17 +746,120 @@
   </si>
   <si>
     <t>Área total (cm3)</t>
+  </si>
+  <si>
+    <t>MEMORIA DE CÁLCULO ESFUERZOS TOLVA ROMANA</t>
+  </si>
+  <si>
+    <t>Se revisaron los cálculos además de ordenar la memoria de cálculo.</t>
+  </si>
+  <si>
+    <t>Se realizaron los cálculos de los esfuerzos.</t>
+  </si>
+  <si>
+    <t>Se utilizaron las siguientes referencias</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>Se utilizó el promedio mayor de los datos de Dos Pinos</t>
+  </si>
+  <si>
+    <t>Asumido http://www.dietmar-schulze.de/spanne.html</t>
+  </si>
+  <si>
+    <t>Esfuerzo vertical</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Exponencial</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Esfuerzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presiones </t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Pnormal</t>
+  </si>
+  <si>
+    <t>m/s2</t>
+  </si>
+  <si>
+    <t>Coeficiente de fricción</t>
+  </si>
+  <si>
+    <t>Área mayor</t>
+  </si>
+  <si>
+    <t>Área menor</t>
+  </si>
+  <si>
+    <t>Perímetro mayor</t>
+  </si>
+  <si>
+    <t>Perímetro menor</t>
+  </si>
+  <si>
+    <t>Esfuerzo en transición zona A y B</t>
+  </si>
+  <si>
+    <t>Esfuerzo en transición zona B y C</t>
+  </si>
+  <si>
+    <t>pv0 A-B</t>
+  </si>
+  <si>
+    <t>pv0 B-C</t>
+  </si>
+  <si>
+    <t>Parte B: Cálculo de presión vertical A-B</t>
+  </si>
+  <si>
+    <t>Parte B: Cálculo de presión vertical B-C</t>
+  </si>
+  <si>
+    <t>Determinación del espesor del material</t>
+  </si>
+  <si>
+    <t>B equivalente</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Modulo elástico acero</t>
+  </si>
+  <si>
+    <t>G Pa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,8 +906,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,6 +925,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1052,15 +1062,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,6 +1150,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,9 +1192,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1176,18 +1201,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1204,24 +1241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,7 +1251,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,9 +1281,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1419,20 +1445,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88529</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1445,7 +1471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="1295400"/>
+          <a:off x="6448425" y="3333750"/>
           <a:ext cx="1285875" cy="1460129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1812,8 +1838,8 @@
   </sheetPr>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,184 +1866,184 @@
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
+      <c r="O1" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="58" t="s">
+      <c r="O3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
     </row>
     <row r="4" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43388</v>
       </c>
-      <c r="O4" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="P4" s="20">
+      <c r="O4" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="19">
         <v>43433</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
+      <c r="Q4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
     </row>
     <row r="5" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="55">
+      <c r="O5" s="65"/>
+      <c r="P5" s="60">
         <v>43503</v>
       </c>
-      <c r="Q5" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
+      <c r="Q5" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O6" s="62"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O7" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
+      <c r="O7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2026,26 +2052,26 @@
       <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="W9" s="57" t="s">
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="W9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2057,29 +2083,29 @@
       <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="14">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="13">
         <v>1</v>
       </c>
-      <c r="W10" s="61" t="s">
+      <c r="W10" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2095,39 +2121,39 @@
         <f>B21/B20</f>
         <v>681818.18181818177</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <v>1</v>
       </c>
-      <c r="P11" s="63" t="s">
+      <c r="P11" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="21" t="s">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <f>P21/P20</f>
         <v>224136.36363636365</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -2135,31 +2161,31 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="14">
         <v>2</v>
       </c>
-      <c r="P12" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="14">
+      <c r="P12" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="13">
         <v>2</v>
       </c>
-      <c r="W12" s="61" t="s">
+      <c r="W12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2175,32 +2201,32 @@
         <f>J11*B22</f>
         <v>886363.63636363635</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>3</v>
       </c>
-      <c r="P13" s="63" t="s">
+      <c r="P13" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="21" t="s">
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="14">
         <f>X11*P22</f>
         <v>268963.63636363635</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="H14">
@@ -2209,51 +2235,51 @@
       <c r="I14" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="14">
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="13">
         <v>3</v>
       </c>
-      <c r="W14" s="61" t="s">
+      <c r="W14" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="57" t="s">
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
     </row>
     <row r="16" spans="1:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2271,33 +2297,33 @@
       <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="49" t="s">
+      <c r="O16" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2318,35 +2344,35 @@
       <c r="L17">
         <v>12.7</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="14">
         <v>30</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="17">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="16">
         <v>79</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="16">
         <v>54.6</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Y17" s="16">
         <v>21</v>
       </c>
-      <c r="Z17" s="17">
+      <c r="Z17" s="16">
         <v>16</v>
       </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2359,28 +2385,28 @@
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="16">
         <f>(PI()/180)*P17</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
     </row>
     <row r="19" spans="1:31" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2396,10 +2422,10 @@
         <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -2407,39 +2433,39 @@
       <c r="M19" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="14">
         <v>10.16</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA19" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
     </row>
     <row r="20" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2468,42 +2494,42 @@
         <f>I20+L20</f>
         <v>886363.63636364811</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <v>0.44</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="17">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="16">
         <f>(W17*W17)*Y17</f>
         <v>131061</v>
       </c>
-      <c r="X20" s="17">
+      <c r="X20" s="16">
         <f>(W17*W17)</f>
         <v>6241</v>
       </c>
-      <c r="Y20" s="17">
+      <c r="Y20" s="16">
         <f>PI()*(Z17/2)^2</f>
         <v>201.06192982974676</v>
       </c>
-      <c r="Z20" s="17">
+      <c r="Z20" s="16">
         <f>(X17/3)*(X20+Y20+SQRT(X20*Y20))</f>
         <v>137633.00029755701</v>
       </c>
-      <c r="AA20" s="24">
+      <c r="AA20" s="23">
         <f>W20+Z20</f>
         <v>268694.00029755698</v>
       </c>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2516,31 +2542,31 @@
       <c r="I21" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="14">
         <v>98620</v>
       </c>
-      <c r="Q21" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="64" t="s">
+      <c r="Q21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2556,32 +2582,32 @@
         <f>J13-M20</f>
         <v>-1.1757947504520416E-8</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="16">
         <v>1.2</v>
       </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="X22" s="17">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X22" s="16">
         <f>X13-AA20</f>
         <v>269.63606607937254</v>
       </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
     </row>
     <row r="23" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2590,27 +2616,27 @@
       <c r="B23">
         <v>6000</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="14">
         <v>6000</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
     </row>
     <row r="24" spans="1:31" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2622,29 +2648,29 @@
       <c r="I24" t="s">
         <v>66</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="14">
         <v>50</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="64" t="s">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
@@ -2654,71 +2680,71 @@
         <f>2*J17*TAN(B18)+L17-I17</f>
         <v>0</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="X25" s="18">
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" s="17">
         <f>2*X17*TAN(P18)+Z17-W17</f>
         <v>4.664939550713143E-2</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="64" t="s">
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
@@ -2728,47 +2754,47 @@
         <f>4*I17*K17+4/2*(I17+L17)*J17/COS(B18)</f>
         <v>41472.285219549667</v>
       </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="X28" s="17">
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X28" s="16">
         <f>4*W17*Y17+4/2*(W17+Z17)*X17/COS(P18)</f>
         <v>18614.863385146353</v>
       </c>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2952,11 +2978,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="W15:Z15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="O1:Z1"/>
@@ -2971,6 +2992,11 @@
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
     <mergeCell ref="O9:U9"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="W15:Z15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3182,7 +3208,7 @@
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="47"/>
       <c r="I14" t="s">
         <v>60</v>
       </c>
@@ -3688,7 +3714,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="L2" sqref="L2:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,147 +3729,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="72" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="74"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="70"/>
     </row>
     <row r="3" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="30">
+      <c r="L3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="29">
         <v>43391</v>
       </c>
-      <c r="N3" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="74"/>
+      <c r="N3" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="70"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="L4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L5" s="28"/>
-      <c r="M5" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L6" s="28"/>
-      <c r="M6" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
@@ -3866,12 +3892,12 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="25"/>
+      <c r="L9" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3896,11 +3922,11 @@
       <c r="H10">
         <v>8.1825961591545759</v>
       </c>
-      <c r="L10" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
+      <c r="L10" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" t="s">
         <v>81</v>
       </c>
@@ -3918,11 +3944,11 @@
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
       <c r="O11" t="s">
         <v>81</v>
       </c>
@@ -3938,10 +3964,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -3949,11 +3975,11 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
+      <c r="L12" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" t="s">
         <v>81</v>
       </c>
@@ -3985,11 +4011,11 @@
         <f>G10*G10*H10</f>
         <v>208.75809447420013</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
       <c r="O13" t="s">
         <v>81</v>
       </c>
@@ -4015,11 +4041,11 @@
         <f>#REF!-J13-G13</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
       <c r="O14" t="s">
         <v>81</v>
       </c>
@@ -4031,11 +4057,11 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
       <c r="R15" t="s">
         <v>81</v>
       </c>
@@ -4050,11 +4076,11 @@
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L16" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" t="s">
         <v>81</v>
       </c>
@@ -4080,39 +4106,39 @@
         <f>1.62*G10-H10</f>
         <v>3.8031799931559362E-12</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="70" t="s">
+      <c r="L19" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="9" t="s">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4122,64 +4148,64 @@
         <f>2*D10-B10</f>
         <v>0</v>
       </c>
-      <c r="L21" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
+      <c r="L21" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
       <c r="O21" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>1</v>
       </c>
-      <c r="R21" s="66" t="s">
+      <c r="R21" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
     </row>
     <row r="22" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
       <c r="O22" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>2</v>
       </c>
-      <c r="R22" s="66" t="s">
+      <c r="R22" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="M23" s="67"/>
+      <c r="L23" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="75"/>
       <c r="O23" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>3</v>
       </c>
-      <c r="R23" s="66" t="s">
+      <c r="R23" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <f>6000/2000</f>
         <v>3</v>
       </c>
@@ -4197,21 +4223,21 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="L25" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" s="5">
         <v>30</v>
       </c>
-      <c r="Q25" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
+      <c r="Q25" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4227,69 +4253,69 @@
         <f>A26*C26</f>
         <v>36.608000000000004</v>
       </c>
-      <c r="L26" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="M26" s="37">
+      <c r="L26" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="36">
         <f>30*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="U26" s="6" t="s">
+      <c r="U26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>184</v>
+      <c r="V26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M27" s="38" t="s">
+      <c r="L27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M27" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="5">
         <v>58.792234391009401</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27" s="5">
         <v>10</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="5">
         <v>7.8768082220043922</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="5">
         <v>5</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="5">
         <f>(Q27-R27)/(2*TAN(M26))</f>
         <v>42.25531449001889</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="5">
         <f>R27*R27</f>
         <v>100</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="5">
         <f>Q27*Q27</f>
         <v>3456.5268246873884</v>
       </c>
@@ -4298,26 +4324,26 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>11250.005999999999</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>0.44022</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <f>M28/N28</f>
         <v>25555.417745672617</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4326,29 +4352,29 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <f>M28/M24</f>
         <v>3750.002</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <f>M29/N29</f>
         <v>12711.871186440678</v>
       </c>
-      <c r="Q29" s="65" t="s">
+      <c r="Q29" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4357,93 +4383,93 @@
       <c r="B30">
         <v>4.5800291779406122</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <f>SUM(M28:M29)</f>
         <v>15000.008</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <f>(N28*M24+N29)/4</f>
         <v>0.40391499999999997</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <f>SUM(O28:O29)</f>
         <v>38267.288932113297</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="5">
         <f>4*(R27*T27)+(4/2)*(Q27+R27)*(U27/COS(M26))+4*Q27*S27</f>
         <v>8765.4342703392249</v>
       </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
     </row>
     <row r="31" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <f>1.5*M30</f>
         <v>22500.011999999999</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="8">
+      <c r="N31" s="5"/>
+      <c r="O31" s="7">
         <f>1.5*O30</f>
         <v>57400.933398169946</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>1.5</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="Q32" s="65" t="s">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="Q32" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A30*A30*B30</f>
         <v>36.607890624964938</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <f>O31*M32-(W27*S27+(V27*T27)+(U27/3*(W27+V27+SQRT(W27*V27))))</f>
         <v>1.8265059043187648E-4</v>
       </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34">
@@ -4462,6 +4488,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="L1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
@@ -4473,17 +4510,6 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="L15:N15"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4493,424 +4519,691 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="38">
+        <v>43516</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="38">
+        <v>43577</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="83" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="F10" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="84"/>
+      <c r="K10" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="84"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="7">
+        <v>9.81</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="7">
+        <f>($B$13*$B$14*$B$15)/($B$19)*$B$17</f>
+        <v>13946.387477358528</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="7">
+        <f>($B$13*$B$14*$B$16)/(($B$19)*$B$18)</f>
+        <v>433.16055000000017</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13">
-        <v>1.2</v>
-      </c>
-      <c r="P13" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13">
-        <f>'Calculo tolva romana'!U27/COS('Calculo de esfuerzos tolva'!L14)/100</f>
-        <v>0.48803543514169417</v>
-      </c>
-      <c r="R13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14">
-        <v>9.81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="M14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15">
+      <c r="B14" s="7">
         <v>529.86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15">
-        <f>A31/B19</f>
-        <v>398.75749863804339</v>
-      </c>
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q15">
-        <f>'Calculo tolva romana'!Q27/100</f>
-        <v>0.58792234391009401</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16">
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.9190080386905668</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.9190080386905668</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="7">
         <f>(58.6/100)^2</f>
         <v>0.34339599999999998</v>
       </c>
-      <c r="C16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" t="s">
-        <v>139</v>
-      </c>
-      <c r="L16">
-        <f>'Calculo tolva romana'!U27/COS('Calculo de esfuerzos tolva'!L14)</f>
-        <v>48.803543514169419</v>
-      </c>
-      <c r="P16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16">
-        <f>200*1000^3</f>
-        <v>200000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17">
+      <c r="C15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="7">
+        <f>H13*H14</f>
+        <v>12816.842202385942</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="7">
+        <f>M13*M14</f>
+        <v>398.07802749362736</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="7">
+        <f>0.1^2</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="7">
         <f>4*58.6/100</f>
         <v>2.3439999999999999</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="44"/>
+      <c r="K17" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="85"/>
+      <c r="M17" s="84"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="7">
+        <f>0.1*4</f>
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="K18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="7">
+        <f>$B$24*($B$22*COS($B$23)^2+1.5*SIN($B$23)^2)</f>
+        <v>16342.81015985364</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="K19" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="7">
+        <f>$B$25*($B$22*COS($B$23)^2+1.5*SIN($B$23)^2)</f>
+        <v>507.59099077667247</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7">
+        <f>$B$22*$B$24*(COS($B$23)^2)</f>
+        <v>11529.812574901087</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="K20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="7">
+        <f>$B$22*$B$25*(COS($B$23)^2)</f>
+        <v>358.10420185507388</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="7">
+        <f>3*((B15/B17)*(B13*B14*B20)/(SQRT(B19)))</f>
+        <v>2085.4433594132674</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="K21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="7">
+        <f>3*((B16/B18)*(B13*B14*B20)/(SQRT(B19)))*(SIN($B$23)^2)</f>
+        <v>89.093112240927084</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="P17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B22" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="F22" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="95">
+        <f>G19+G21+0.2*B24</f>
+        <v>20991.621959744094</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="K22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" s="7">
+        <f>L21+L20</f>
+        <v>447.19731409600098</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B18">
-        <v>0.3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B23" s="7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="7">
+        <f>$H$15</f>
+        <v>12816.842202385942</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="7">
+        <f>M15</f>
+        <v>398.07802749362736</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="F25" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="97">
+        <f>0.4861-(0.586/6)*(10-58.6)/(10+58.6)</f>
+        <v>0.55529241982507282</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B19">
-        <v>0.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19">
-        <f>Q13-(Q15)*(Q15-Q14)/(6*Q14+Q15)</f>
-        <v>0.24655462661214267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20">
-        <v>0.08</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20">
-        <f>L15*(L13*COS(L14)^2+1.5*SIN(L14)^2)</f>
-        <v>508.45738733106111</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="B26" s="7">
+        <f>0.421/COS(B23)</f>
+        <v>0.48624160220884305</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="98">
+        <f>((PI()^2*B27*1000000000)/(12*(1-$B$19^2)*$G$22))^(-1/2)*$G$25*1000</f>
+        <v>0.19414642117329969</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="5">
+        <v>190</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39">
+        <f>A47*TAN(B19)</f>
+        <v>61.675074566203399</v>
+      </c>
+      <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c r="N20">
-        <f>L23*0.3</f>
-        <v>309.16290751886811</v>
-      </c>
-      <c r="O20" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>($B$13*$B$14*$B$15)/(TAN($B$19)*$B$17)</f>
+        <v>2461.7103487256813</v>
+      </c>
+      <c r="B41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>140</v>
-      </c>
-      <c r="L21">
-        <f>L13*L15*(COS(L14)^2)</f>
-        <v>358.71544250401558</v>
-      </c>
-      <c r="M21" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>EXP(-($B$20*TAN($B$19)*$B$17*$B$21)/$B$15)</f>
+        <v>0.9190080386905668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>$A$41*(1-$A$44)</f>
+        <v>199.37874931902169</v>
+      </c>
+      <c r="B47" t="s">
         <v>17</v>
       </c>
-      <c r="P21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22">
-        <f>3*((B16/B17)*(B14*B15*B19)/(SQRT(B18)))*(SIN(L14)^2)</f>
-        <v>522.08563773183255</v>
-      </c>
-      <c r="M22" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P22">
-        <f>(Q17*PI()^2*Q16)/(12*(1-0.3^3)*N26)</f>
-        <v>72784293.430552989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23">
-        <f>(L20-L21)+L21+L22</f>
-        <v>1030.5430250628938</v>
-      </c>
-      <c r="M23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <f>SQRT(L23^2+3*N20^2)</f>
-        <v>1161.3630081341237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24">
-        <f>A31*TAN(B18)</f>
-        <v>61.675074566203399</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>(B14*B15*B16)/(TAN(B18)*B17)</f>
-        <v>2461.7103487256813</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" t="s">
-        <v>155</v>
-      </c>
-      <c r="P25">
-        <f>Q19/(SQRT(P22))</f>
-        <v>2.8899765668606438E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N26">
-        <f>N23*2</f>
-        <v>2322.7260162682473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f>EXP(-(B19*TAN(B18)*B17*B20)/B16)</f>
-        <v>0.9190080386905668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f>A25*(1-A28)</f>
-        <v>199.37874931902169</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>A31/1000000</f>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>A47/1000000</f>
         <v>1.9937874931902168E-4</v>
       </c>
-      <c r="B32" t="s">
-        <v>127</v>
+      <c r="B48" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:I10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="D17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4935,459 +5228,459 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="A1" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="38">
         <v>43433</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="39">
+      <c r="A4" s="30"/>
+      <c r="B4" s="38">
         <v>43563</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+      <c r="C4" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="H9" s="81" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="H9" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="82"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="H11" s="9" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>B20/B19</f>
         <v>16064.257028112448</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f>I11*B21</f>
         <v>19277.108433734938</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="H15" s="9" t="s">
+      <c r="B15" s="84"/>
+      <c r="H15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="42">
         <f>(PI()/180)*B16</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <v>43.975296439663964</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>35.884019330087902</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="40">
         <v>0</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <v>2.54</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2.54</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>1.2450000000000001</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>170</v>
+      <c r="H19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>20000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f>I20*J17</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f>(PI()*(H17^2)/4)</f>
         <v>1518.8239361184492</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f>PI()*(K17/2)^2</f>
         <v>5.0670747909749769</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <f>(I17/3)*(I20+J20+SQRT(I20*J20))</f>
         <v>19277.108433737867</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <f>H20+K20</f>
         <v>19277.108433737867</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>1.2</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>100</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <f>I13-L20</f>
         <v>-2.9285729397088289E-9</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H24" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="H24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f>2*I17*TAN(B17)+K17-H17</f>
         <v>0</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="6"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="H28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="7">
         <f>I17/COS(B17)</f>
         <v>41.435296439663965</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="7">
         <f>PI()*(0.5*H17+0.5*K17)*I28</f>
         <v>3027.5137226549482</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I30" s="47">
+      <c r="H30" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="46">
         <f>H17*PI()*J17+I29</f>
         <v>3027.5137226549482</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -5401,11 +5694,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A10:F10"/>
@@ -5413,6 +5701,11 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5442,494 +5735,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="A1" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="38">
         <v>43433</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="39">
+      <c r="A4" s="30"/>
+      <c r="B4" s="38">
         <v>43563</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
+      <c r="C4" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="10"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="67" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="46"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="45"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="I10" s="9" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f>B20/B19</f>
         <v>704.22535211267609</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="45"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="45"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f>J10*B21</f>
         <v>1408.4507042253522</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="45"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="45"/>
+      <c r="I13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="45"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="I15" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15" s="45"/>
+      <c r="B15" s="92"/>
+      <c r="I15" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="41">
+        <v>170</v>
+      </c>
+      <c r="I16" s="40">
         <v>18.385069549951073</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="40">
         <v>14.796104255681536</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <v>0</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="40">
         <f>B18</f>
         <v>1.3</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <f>(PI()/180)*B16</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="10"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1.3</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>170</v>
+      <c r="I18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0.71</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>J19*K16</f>
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f>(PI()*(I16^2)/4)</f>
         <v>265.47304767135967</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f>PI()*(L16/2)^2</f>
         <v>1.3273228961416876</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f>(J16/3)*(J19+K19+SQRT(J19*K19))</f>
         <v>1408.4502902540867</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f>I19+L19</f>
         <v>1408.4502902540867</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>B22*B23</f>
         <v>500</v>
       </c>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="10"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <f>J12-M19</f>
         <v>4.1397126551601104E-4</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="10"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>10</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="I23" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="10"/>
+      <c r="I23" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <f>2*J16*TAN(B17)+L16-I16</f>
         <v>-6.7501559897209518E-14</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="10"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="10"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="I27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="7">
         <f>J16/COS(B17)</f>
         <v>17.085069549951005</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="10"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="I28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="7">
         <f>PI()*(0.5*I16+0.5*L16)*J27</f>
         <v>528.29144955043387</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="10"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J29" s="47">
+      <c r="I29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="46">
         <f>I16*PI()*K16+J28</f>
         <v>528.29144955043387</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="10"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M30" s="10"/>
+      <c r="M30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="211">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>G Pa</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -857,7 +860,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1159,15 +1162,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,6 +1192,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1201,30 +1204,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1241,7 +1232,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1251,15 +1268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,12 +1290,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1402,20 +1405,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5621</xdr:rowOff>
+      <xdr:colOff>521242</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1428,8 +1431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="1695450"/>
-          <a:ext cx="1400175" cy="2739296"/>
+          <a:off x="4048125" y="1990726"/>
+          <a:ext cx="1654717" cy="3219450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,8 +1841,8 @@
   </sheetPr>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,20 +1869,20 @@
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
@@ -1915,19 +1918,19 @@
       <c r="O3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="64"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="68"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -1938,7 +1941,7 @@
       <c r="A4" s="2">
         <v>43388</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="70" t="s">
         <v>121</v>
       </c>
       <c r="P4" s="19">
@@ -1964,22 +1967,22 @@
     </row>
     <row r="5" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="60">
+      <c r="O5" s="70"/>
+      <c r="P5" s="63">
         <v>43503</v>
       </c>
-      <c r="Q5" s="59" t="s">
+      <c r="Q5" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
@@ -1987,18 +1990,18 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O6" s="65"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
@@ -2052,21 +2055,21 @@
       <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="W9" s="53" t="s">
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="W9" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
@@ -2090,17 +2093,17 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="57"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="13">
         <v>1</v>
       </c>
-      <c r="W10" s="52" t="s">
+      <c r="W10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
@@ -2124,14 +2127,14 @@
       <c r="O11" s="14">
         <v>1</v>
       </c>
-      <c r="P11" s="66" t="s">
+      <c r="P11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="11"/>
       <c r="W11" s="20" t="s">
         <v>56</v>
@@ -2164,23 +2167,23 @@
       <c r="O12" s="14">
         <v>2</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
       <c r="V12" s="13">
         <v>2</v>
       </c>
-      <c r="W12" s="52" t="s">
+      <c r="W12" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -2204,14 +2207,14 @@
       <c r="O13" s="14">
         <v>3</v>
       </c>
-      <c r="P13" s="66" t="s">
+      <c r="P13" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="11"/>
       <c r="W13" s="20" t="s">
         <v>56</v>
@@ -2245,12 +2248,12 @@
       <c r="V14" s="13">
         <v>3</v>
       </c>
-      <c r="W14" s="52" t="s">
+      <c r="W14" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -2269,12 +2272,12 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -2297,10 +2300,10 @@
       <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="54" t="s">
+      <c r="O16" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="55"/>
+      <c r="P16" s="58"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2556,12 +2559,12 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="51" t="s">
+      <c r="W21" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
@@ -2660,12 +2663,12 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="51" t="s">
+      <c r="W24" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
@@ -2734,12 +2737,12 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="51" t="s">
+      <c r="W27" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
@@ -2978,6 +2981,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="W15:Z15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="O1:Z1"/>
@@ -2992,11 +3000,6 @@
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
     <mergeCell ref="O9:U9"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="W15:Z15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3714,7 +3717,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:W4"/>
+      <selection activeCell="L1" sqref="L1:X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,20 +3743,20 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -3770,19 +3773,19 @@
       <c r="L2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="70"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
     </row>
     <row r="3" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3794,18 +3797,18 @@
       <c r="M3" s="29">
         <v>43391</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="70"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="82"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L4" s="8" t="s">
@@ -3892,11 +3895,11 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
       <c r="O9" s="24"/>
       <c r="P9" s="1" t="s">
         <v>24</v>
@@ -3922,11 +3925,11 @@
       <c r="H10">
         <v>8.1825961591545759</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
       <c r="O10" t="s">
         <v>81</v>
       </c>
@@ -4011,11 +4014,11 @@
         <f>G10*G10*H10</f>
         <v>208.75809447420013</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
       <c r="O13" t="s">
         <v>81</v>
       </c>
@@ -4076,11 +4079,11 @@
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
       <c r="O16" t="s">
         <v>81</v>
       </c>
@@ -4366,12 +4369,12 @@
         <f>M29/N29</f>
         <v>12711.871186440678</v>
       </c>
-      <c r="Q29" s="72" t="s">
+      <c r="Q29" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -4445,12 +4448,12 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="Q32" s="72" t="s">
+      <c r="Q32" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -4488,6 +4491,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:W1"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="N3:W3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
     <mergeCell ref="Q32:T32"/>
     <mergeCell ref="Q29:T29"/>
     <mergeCell ref="Q25:T25"/>
@@ -4499,17 +4513,6 @@
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L1:W1"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="N3:W3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4519,10 +4522,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,61 +4541,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="38">
         <v>43516</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -4657,23 +4663,23 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="84"/>
-      <c r="F10" s="83" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="F10" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="84"/>
-      <c r="K10" s="83" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="K10" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="84"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -4704,7 +4710,7 @@
       <c r="C12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="51" t="s">
         <v>184</v>
       </c>
       <c r="G12" s="5"/>
@@ -4714,7 +4720,7 @@
       <c r="I12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="51" t="s">
         <v>184</v>
       </c>
       <c r="L12" s="5"/>
@@ -4872,17 +4878,17 @@
       <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="44"/>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="85"/>
-      <c r="M17" s="84"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5021,14 +5027,14 @@
         <v>1.2</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="95">
-        <f>G19+G21+0.2*B24</f>
-        <v>20991.621959744094</v>
-      </c>
-      <c r="H22" s="94" t="s">
+      <c r="G22" s="53">
+        <f>G19+G21+2*B24*B20</f>
+        <v>31245.095721652848</v>
+      </c>
+      <c r="H22" s="52" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="9"/>
@@ -5083,11 +5089,13 @@
       <c r="F25" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="G25" s="97">
-        <f>0.4861-(0.586/6)*(10-58.6)/(10+58.6)</f>
-        <v>0.55529241982507282</v>
-      </c>
-      <c r="H25" s="26"/>
+      <c r="G25" s="55">
+        <f>0.487-0.588*(0.588-0.1)/(6*(0.588+0.1))</f>
+        <v>0.41748837209302325</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5103,86 +5111,88 @@
       <c r="F26" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="56">
         <f>((PI()^2*B27*1000000000)/(12*(1-$B$19^2)*$G$22))^(-1/2)*$G$25*1000</f>
-        <v>0.19414642117329969</v>
-      </c>
-      <c r="H26" s="26"/>
+        <v>0.17808197345967205</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="54" t="s">
         <v>208</v>
       </c>
       <c r="B27" s="5">
         <v>190</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="54" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D39">
-        <f>A47*TAN(B19)</f>
+      <c r="D53">
+        <f>A61*TAN(B19)</f>
         <v>61.675074566203399</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <f>($B$13*$B$14*$B$15)/(TAN($B$19)*$B$17)</f>
         <v>2461.7103487256813</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <f>EXP(-($B$20*TAN($B$19)*$B$17*$B$21)/$B$15)</f>
         <v>0.9190080386905668</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>$A$41*(1-$A$44)</f>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>$A$55*(1-$A$58)</f>
         <v>199.37874931902169</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>A47/1000000</f>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>A61/1000000</f>
         <v>1.9937874931902168E-4</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B62" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5201,8 +5211,8 @@
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="D17" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="82" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
@@ -5228,38 +5238,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5268,18 +5278,18 @@
       <c r="B3" s="38">
         <v>43433</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -5335,13 +5345,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -5361,22 +5371,22 @@
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="84"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -5391,13 +5401,13 @@
       <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
@@ -5412,13 +5422,13 @@
       <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12">
         <v>2</v>
       </c>
@@ -5444,19 +5454,19 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="87"/>
       <c r="H15" s="8" t="s">
         <v>24</v>
       </c>
@@ -5580,12 +5590,12 @@
       <c r="B21" s="5">
         <v>1.2</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5694,6 +5704,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A10:F10"/>
@@ -5701,11 +5716,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5735,38 +5745,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5775,18 +5785,18 @@
       <c r="B3" s="38">
         <v>43433</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -5842,13 +5852,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -5875,14 +5885,14 @@
       <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
       <c r="H9">
         <v>1</v>
       </c>
@@ -5972,10 +5982,10 @@
       <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="98"/>
       <c r="I15" s="39" t="s">
         <v>165</v>
       </c>
@@ -6090,12 +6100,12 @@
         <f>B22*B23</f>
         <v>500</v>
       </c>
-      <c r="I20" s="83" t="s">
+      <c r="I20" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="84"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6136,12 +6146,12 @@
       <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="I23" s="83" t="s">
+      <c r="I23" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="84"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -6164,12 +6174,12 @@
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="84"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -6213,16 +6223,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I8:L8"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo_de_tolvas_Version_Tesis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11700" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Calculo de esfuerzos tolva" sheetId="8" r:id="rId4"/>
     <sheet name="Dimensionado tolva mineral" sheetId="6" r:id="rId5"/>
     <sheet name="Dimensionado tolva levadura" sheetId="7" r:id="rId6"/>
+    <sheet name="Tolva Levadura Geometria 2" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$Y$15</definedName>
@@ -218,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="213">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -851,6 +852,12 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>Se realizó una experimentación con tolvas diferentes medidas</t>
+  </si>
+  <si>
+    <t>Calcular las medidas de la tolva con la nueva especificación</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1168,6 +1175,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,9 +1217,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1204,18 +1226,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1232,24 +1266,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,6 +1275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1268,7 +1285,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,6 +1589,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="2905125"/>
+          <a:ext cx="1866899" cy="3126801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1841,7 +1900,7 @@
   </sheetPr>
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
@@ -1869,20 +1928,20 @@
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
@@ -1918,19 +1977,19 @@
       <c r="O3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="68"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="73"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -1941,7 +2000,7 @@
       <c r="A4" s="2">
         <v>43388</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="74" t="s">
         <v>121</v>
       </c>
       <c r="P4" s="19">
@@ -1967,22 +2026,22 @@
     </row>
     <row r="5" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="63">
+      <c r="O5" s="74"/>
+      <c r="P5" s="69">
         <v>43503</v>
       </c>
-      <c r="Q5" s="62" t="s">
+      <c r="Q5" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
@@ -1990,18 +2049,18 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O6" s="70"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
@@ -2055,21 +2114,21 @@
       <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="W9" s="65" t="s">
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="W9" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
@@ -2093,17 +2152,17 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="60"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="13">
         <v>1</v>
       </c>
-      <c r="W10" s="69" t="s">
+      <c r="W10" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
@@ -2127,14 +2186,14 @@
       <c r="O11" s="14">
         <v>1</v>
       </c>
-      <c r="P11" s="71" t="s">
+      <c r="P11" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="11"/>
       <c r="W11" s="20" t="s">
         <v>56</v>
@@ -2167,23 +2226,23 @@
       <c r="O12" s="14">
         <v>2</v>
       </c>
-      <c r="P12" s="71" t="s">
+      <c r="P12" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
       <c r="V12" s="13">
         <v>2</v>
       </c>
-      <c r="W12" s="69" t="s">
+      <c r="W12" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -2207,14 +2266,14 @@
       <c r="O13" s="14">
         <v>3</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="11"/>
       <c r="W13" s="20" t="s">
         <v>56</v>
@@ -2248,12 +2307,12 @@
       <c r="V14" s="13">
         <v>3</v>
       </c>
-      <c r="W14" s="69" t="s">
+      <c r="W14" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -2272,12 +2331,12 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="65" t="s">
+      <c r="W15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -2300,10 +2359,10 @@
       <c r="L16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="58"/>
+      <c r="P16" s="64"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2559,12 +2618,12 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="72" t="s">
+      <c r="W21" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
@@ -2663,12 +2722,12 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="72" t="s">
+      <c r="W24" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
@@ -2737,12 +2796,12 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="72" t="s">
+      <c r="W27" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
@@ -2981,11 +3040,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="W15:Z15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="O1:Z1"/>
@@ -3000,6 +3054,11 @@
     <mergeCell ref="P12:U12"/>
     <mergeCell ref="P13:U13"/>
     <mergeCell ref="O9:U9"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="W15:Z15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3717,7 +3776,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:X35"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,20 +3802,20 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -3773,19 +3832,19 @@
       <c r="L2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
     </row>
     <row r="3" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3797,18 +3856,18 @@
       <c r="M3" s="29">
         <v>43391</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="82"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="79"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L4" s="8" t="s">
@@ -3895,11 +3954,11 @@
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="73" t="s">
+      <c r="L9" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="24"/>
       <c r="P9" s="1" t="s">
         <v>24</v>
@@ -3925,11 +3984,11 @@
       <c r="H10">
         <v>8.1825961591545759</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
       <c r="O10" t="s">
         <v>81</v>
       </c>
@@ -3947,11 +4006,11 @@
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
       <c r="O11" t="s">
         <v>81</v>
       </c>
@@ -3978,11 +4037,11 @@
       <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
       <c r="O12" t="s">
         <v>81</v>
       </c>
@@ -4014,11 +4073,11 @@
         <f>G10*G10*H10</f>
         <v>208.75809447420013</v>
       </c>
-      <c r="L13" s="83" t="s">
+      <c r="L13" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
       <c r="O13" t="s">
         <v>81</v>
       </c>
@@ -4044,11 +4103,11 @@
         <f>#REF!-J13-G13</f>
         <v>#REF!</v>
       </c>
-      <c r="L14" s="74" t="s">
+      <c r="L14" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
       <c r="O14" t="s">
         <v>81</v>
       </c>
@@ -4060,11 +4119,11 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L15" s="74" t="s">
+      <c r="L15" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
       <c r="R15" t="s">
         <v>81</v>
       </c>
@@ -4079,11 +4138,11 @@
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="83" t="s">
+      <c r="L16" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
       <c r="O16" t="s">
         <v>81</v>
       </c>
@@ -4109,11 +4168,11 @@
         <f>1.62*G10-H10</f>
         <v>3.8031799931559362E-12</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L18" s="4"/>
@@ -4121,11 +4180,11 @@
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -4151,55 +4210,55 @@
         <f>2*D10-B10</f>
         <v>0</v>
       </c>
-      <c r="L21" s="76" t="s">
+      <c r="L21" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
       <c r="O21" t="s">
         <v>81</v>
       </c>
       <c r="Q21" s="5">
         <v>1</v>
       </c>
-      <c r="R21" s="74" t="s">
+      <c r="R21" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
     </row>
     <row r="22" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
       <c r="O22" t="s">
         <v>81</v>
       </c>
       <c r="Q22" s="5">
         <v>2</v>
       </c>
-      <c r="R22" s="74" t="s">
+      <c r="R22" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="75"/>
+      <c r="M23" s="84"/>
       <c r="O23" t="s">
         <v>81</v>
       </c>
       <c r="Q23" s="5">
         <v>3</v>
       </c>
-      <c r="R23" s="74" t="s">
+      <c r="R23" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4232,12 +4291,12 @@
       <c r="M25" s="5">
         <v>30</v>
       </c>
-      <c r="Q25" s="74" t="s">
+      <c r="Q25" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -4369,12 +4428,12 @@
         <f>M29/N29</f>
         <v>12711.871186440678</v>
       </c>
-      <c r="Q29" s="73" t="s">
+      <c r="Q29" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -4448,12 +4507,12 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="Q32" s="73" t="s">
+      <c r="Q32" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
@@ -4491,6 +4550,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="L1:W1"/>
     <mergeCell ref="M2:W2"/>
     <mergeCell ref="N3:W3"/>
@@ -4502,17 +4572,6 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="L15:N15"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4527,8 +4586,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD36"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,40 +4600,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -4583,19 +4642,19 @@
       <c r="B3" s="38">
         <v>43516</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -4663,23 +4722,23 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="F10" s="85" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="F10" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87"/>
-      <c r="K10" s="85" t="s">
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+      <c r="K10" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -4878,17 +4937,17 @@
       <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="44"/>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5224,8 +5283,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,38 +5297,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5278,18 +5337,18 @@
       <c r="B3" s="38">
         <v>43433</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -5363,30 +5422,30 @@
       <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="H9" s="85" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="H9" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -5454,19 +5513,19 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="90"/>
       <c r="H15" s="8" t="s">
         <v>24</v>
       </c>
@@ -5590,12 +5649,12 @@
       <c r="B21" s="5">
         <v>1.2</v>
       </c>
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5704,11 +5763,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A10:F10"/>
@@ -5716,6 +5770,11 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5730,8 +5789,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5745,38 +5804,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -5785,18 +5844,18 @@
       <c r="B3" s="38">
         <v>43433</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -5876,23 +5935,23 @@
       <c r="F8" s="43"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
       <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
       <c r="H9">
         <v>1</v>
       </c>
@@ -5982,10 +6041,10 @@
       <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="101"/>
       <c r="I15" s="39" t="s">
         <v>165</v>
       </c>
@@ -6100,12 +6159,12 @@
         <f>B22*B23</f>
         <v>500</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6146,12 +6205,12 @@
       <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -6174,12 +6233,12 @@
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -6223,19 +6282,519 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="38">
+        <v>43592</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="38">
+        <v>43594</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="I10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="7">
+        <f>B20/B19</f>
+        <v>704.22535211267609</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="5">
+        <f>J10*B21</f>
+        <v>1408.4507042253522</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="I15" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="40">
+        <v>18.385069549951073</v>
+      </c>
+      <c r="J16" s="40">
+        <v>14.796104255681536</v>
+      </c>
+      <c r="K16" s="40">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
+        <f>B18</f>
+        <v>1.3</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7">
+        <f>(PI()/180)*B16</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="I19" s="7">
+        <f>J19*K16</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>(PI()*(I16^2)/4)</f>
+        <v>265.47304767135967</v>
+      </c>
+      <c r="K19" s="7">
+        <f>PI()*(L16/2)^2</f>
+        <v>1.3273228961416876</v>
+      </c>
+      <c r="L19" s="7">
+        <f>(J16/3)*(J19+K19+SQRT(J19*K19))</f>
+        <v>1408.4502902540867</v>
+      </c>
+      <c r="M19" s="7">
+        <f>I19+L19</f>
+        <v>1408.4502902540867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5">
+        <f>B22*B23</f>
+        <v>500</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="7">
+        <f>J12-M19</f>
+        <v>4.1397126551601104E-4</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5">
+        <v>50</v>
+      </c>
+      <c r="I23" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="7">
+        <f>2*J16*TAN(B17)+L16-I16</f>
+        <v>-6.7501559897209518E-14</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="7">
+        <f>J16/COS(B17)</f>
+        <v>17.085069549951005</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="7">
+        <f>PI()*(0.5*I16+0.5*L16)*J27</f>
+        <v>528.29144955043387</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="46">
+        <f>I16*PI()*K16+J28</f>
+        <v>528.29144955043387</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>